--- a/DATA_goal/Junction_Flooding_360.xlsx
+++ b/DATA_goal/Junction_Flooding_360.xlsx
@@ -655,103 +655,103 @@
         <v>36011.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36011.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36011.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36011.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_360.xlsx
+++ b/DATA_goal/Junction_Flooding_360.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36011.04861111111</v>
+        <v>45041.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36011.05555555555</v>
+        <v>45041.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.16</v>
+        <v>13.336</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>10.154</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.273</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.215</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.22</v>
+        <v>22.999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.18</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.02</v>
+        <v>34.049</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.54</v>
+        <v>15.211</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>7.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>10.427</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>11.395</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2</v>
+        <v>12.478</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>3.868</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.17</v>
+        <v>9.768000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.96</v>
+        <v>14.375</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>7.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.72</v>
+        <v>146.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>27.605</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.13</v>
+        <v>9.861000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.79</v>
+        <v>19.024</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.13</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>1.328</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.35</v>
+        <v>17.462</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>8.081</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>7.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.08</v>
+        <v>11.983</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.51</v>
+        <v>30.593</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>5.084</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.52</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36011.0625</v>
+        <v>45041.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.11</v>
+        <v>20.894</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.6</v>
+        <v>15.773</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.77</v>
+        <v>44.334</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.76</v>
+        <v>36.965</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.24</v>
+        <v>15.785</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.52</v>
+        <v>61.076</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.68</v>
+        <v>24.722</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.48</v>
+        <v>11.659</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.35</v>
+        <v>16.738</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.93</v>
+        <v>18.063</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.81</v>
+        <v>19.372</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.83</v>
+        <v>5.604</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.2</v>
+        <v>15.919</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.61</v>
+        <v>23.078</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.12</v>
+        <v>13.035</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.511</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.522</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.4</v>
+        <v>238.498</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.14</v>
+        <v>44.758</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.69</v>
+        <v>15.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.97</v>
+        <v>30.517</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.79</v>
+        <v>15.739</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.34</v>
+        <v>2.118</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.83</v>
+        <v>30.282</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.13</v>
+        <v>13.085</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.58</v>
+        <v>11.636</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.32</v>
+        <v>14.377</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.21</v>
+        <v>18.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.73</v>
+        <v>55.495</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.18</v>
+        <v>8.333</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.8</v>
+        <v>18.438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36011.06944444445</v>
+        <v>45041.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.83</v>
+        <v>8.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.05</v>
+        <v>6.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.84</v>
+        <v>18.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>15.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.85</v>
+        <v>6.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.57</v>
+        <v>30.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.12</v>
+        <v>10.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.61</v>
+        <v>5.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.61</v>
+        <v>7.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.4</v>
+        <v>8.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.32</v>
+        <v>2.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.79</v>
+        <v>6.59</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.84</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.39</v>
+        <v>5.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.4</v>
+        <v>95.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.45</v>
+        <v>18.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.01</v>
+        <v>6.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.26</v>
+        <v>6.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.98</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>5.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.73</v>
+        <v>4.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.57</v>
+        <v>6.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.94</v>
+        <v>7.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.5</v>
+        <v>27.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.02</v>
+        <v>3.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36011.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_360.xlsx
+++ b/DATA_goal/Junction_Flooding_360.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45041.50694444445</v>
+        <v>36011.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>7.767</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>5.493</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>5.682</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.404</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>7.057</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>3.269</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>2.974</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>3.719</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>4.974</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>3.582</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.024</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45041.51388888889</v>
+        <v>36011.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.336</v>
+        <v>2.162</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.154</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.273</v>
+        <v>0.505</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.215</v>
+        <v>2.792</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.999</v>
+        <v>1.224</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.476000000000001</v>
+        <v>0.178</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.049</v>
+        <v>4.022</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.211</v>
+        <v>0.542</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.641</v>
+        <v>0.163</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.427</v>
+        <v>0.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.395</v>
+        <v>0.823</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.478</v>
+        <v>1.996</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.868</v>
+        <v>0.234</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.768000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.375</v>
+        <v>0.958</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.92</v>
+        <v>0.504</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.748</v>
+        <v>3.722</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.605</v>
+        <v>2.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.861000000000001</v>
+        <v>1.131</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.024</v>
+        <v>1.793</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.547000000000001</v>
+        <v>1.127</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.328</v>
+        <v>0.089</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.462</v>
+        <v>1.345</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.081</v>
+        <v>0.577</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.105</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.797000000000001</v>
+        <v>0.756</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.983</v>
+        <v>1.079</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.593</v>
+        <v>2.514</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.084</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.39</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45041.52083333334</v>
+        <v>36011.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.894</v>
+        <v>4.112</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.773</v>
+        <v>2.604</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.405</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.334</v>
+        <v>7.774</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.965</v>
+        <v>5.757</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.785</v>
+        <v>2.239</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.076</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.722</v>
+        <v>3.683</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.659</v>
+        <v>1.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.738</v>
+        <v>2.349</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.063</v>
+        <v>2.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.372</v>
+        <v>3.814</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.604</v>
+        <v>0.828</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.919</v>
+        <v>2.197</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.078</v>
+        <v>3.615</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.035</v>
+        <v>2.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.511</v>
+        <v>0.39</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.522</v>
+        <v>0.037</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>238.498</v>
+        <v>32.403</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.758</v>
+        <v>7.144</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.21</v>
+        <v>2.693</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.517</v>
+        <v>4.971</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.739</v>
+        <v>2.791</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.118</v>
+        <v>0.341</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.282</v>
+        <v>3.829</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.085</v>
+        <v>2.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.636</v>
+        <v>1.576</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.377</v>
+        <v>2.319</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.999</v>
+        <v>3.214</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.495</v>
+        <v>6.728</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.333</v>
+        <v>1.177</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.438</v>
+        <v>2.802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45041.52777777778</v>
+        <v>36011.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.82</v>
+        <v>5.829</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.68</v>
+        <v>4.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.386</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.38</v>
+        <v>11.837</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.41</v>
+        <v>9.301</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.46</v>
+        <v>3.847</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.48</v>
+        <v>14.566</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.27</v>
+        <v>6.121</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.05</v>
+        <v>2.615</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7</v>
+        <v>4.001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.57</v>
+        <v>4.611</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.19</v>
+        <v>5.402</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.49</v>
+        <v>1.321</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.59</v>
+        <v>3.788</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>5.842</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.33</v>
+        <v>3.389</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.321</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.089</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.52</v>
+        <v>55.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.77</v>
+        <v>11.452</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.45</v>
+        <v>4.006</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.86</v>
+        <v>7.891</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.51</v>
+        <v>4.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.45</v>
+        <v>6.981</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.46</v>
+        <v>3.364</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.92</v>
+        <v>2.727</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.25</v>
+        <v>3.571</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.96</v>
+        <v>4.941</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.92</v>
+        <v>12.502</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.43</v>
+        <v>2.019</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.65</v>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>36011.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.23</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_360.xlsx
+++ b/DATA_goal/Junction_Flooding_360.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36011.04861111111</v>
+        <v>45041.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36011.05555555555</v>
+        <v>45041.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.162</v>
+        <v>13.336</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>10.154</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.505</v>
+        <v>0.273</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.792</v>
+        <v>27.215</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.224</v>
+        <v>22.999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.178</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.022</v>
+        <v>34.049</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.542</v>
+        <v>15.211</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.163</v>
+        <v>7.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>10.427</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.823</v>
+        <v>11.395</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.996</v>
+        <v>12.478</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.234</v>
+        <v>3.868</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.166</v>
+        <v>9.768000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.958</v>
+        <v>14.375</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.504</v>
+        <v>7.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.722</v>
+        <v>146.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>27.605</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.131</v>
+        <v>9.861000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.793</v>
+        <v>19.024</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.127</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.089</v>
+        <v>1.328</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.345</v>
+        <v>17.462</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.577</v>
+        <v>8.081</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.105</v>
+        <v>7.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.756</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.079</v>
+        <v>11.983</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.514</v>
+        <v>30.593</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>5.084</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.517</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36011.0625</v>
+        <v>45041.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.112</v>
+        <v>20.894</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.604</v>
+        <v>15.773</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.405</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.774</v>
+        <v>44.334</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.757</v>
+        <v>36.965</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.239</v>
+        <v>15.785</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.521000000000001</v>
+        <v>61.076</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.683</v>
+        <v>24.722</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.477</v>
+        <v>11.659</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.349</v>
+        <v>16.738</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.93</v>
+        <v>18.063</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.814</v>
+        <v>19.372</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.828</v>
+        <v>5.604</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.197</v>
+        <v>15.919</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.615</v>
+        <v>23.078</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.12</v>
+        <v>13.035</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.511</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.037</v>
+        <v>0.522</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.403</v>
+        <v>238.498</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.144</v>
+        <v>44.758</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.693</v>
+        <v>15.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.971</v>
+        <v>30.517</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.791</v>
+        <v>15.739</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.341</v>
+        <v>2.118</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.829</v>
+        <v>30.282</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.131</v>
+        <v>13.085</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.576</v>
+        <v>11.636</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.319</v>
+        <v>14.377</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.214</v>
+        <v>18.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.728</v>
+        <v>55.495</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.177</v>
+        <v>8.333</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.802</v>
+        <v>18.438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36011.06944444445</v>
+        <v>45041.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.829</v>
+        <v>8.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.05</v>
+        <v>6.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.386</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.837</v>
+        <v>18.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.301</v>
+        <v>15.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.847</v>
+        <v>6.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.566</v>
+        <v>30.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.121</v>
+        <v>10.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.615</v>
+        <v>5.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.001</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.611</v>
+        <v>7.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.402</v>
+        <v>8.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.321</v>
+        <v>2.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.788</v>
+        <v>6.59</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.842</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.389</v>
+        <v>5.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.321</v>
+        <v>0.34</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.089</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.4</v>
+        <v>95.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.452</v>
+        <v>18.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.006</v>
+        <v>6.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.891</v>
+        <v>12.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.26</v>
+        <v>6.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.981</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.364</v>
+        <v>5.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.727</v>
+        <v>4.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.571</v>
+        <v>6.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.941</v>
+        <v>7.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.502</v>
+        <v>27.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.019</v>
+        <v>3.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36011.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>
